--- a/web/hwd2.xlsx
+++ b/web/hwd2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 1"</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Результат:новый узел вложенный</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Дополнительное тестирование (10% от общих трудозатрат)</t>
+  </si>
+  <si>
+    <t>Итого с учетом доп. затрат</t>
   </si>
 </sst>
 </file>
@@ -176,21 +185,59 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +538,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A4" sqref="A4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,7 +552,7 @@
     <col min="5" max="5" width="12" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" customWidth="true" style="0"/>
     <col min="7" max="7" width="12" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
     <col min="9" max="9" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -519,85 +566,117 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
     <row r="7" spans="1:9" customHeight="1" ht="40">
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11"/>
-      <c r="D11">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>9</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12"/>
-      <c r="D12">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -605,22 +684,22 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14"/>
-      <c r="D14">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14"/>
-      <c r="G14">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -628,18 +707,18 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -647,32 +726,32 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -680,190 +759,190 @@
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21"/>
-      <c r="D21">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21"/>
-      <c r="F21">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21"/>
-      <c r="H21">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23"/>
-      <c r="H23">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
         <v>8</v>
       </c>
-      <c r="G25"/>
-      <c r="H25">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <v>5.5</v>
       </c>
-      <c r="I25"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26"/>
-      <c r="H26">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
         <v>0.5</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <v>0.5</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
         <v>1.5</v>
       </c>
-      <c r="G28"/>
-      <c r="H28">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
         <v>0.5</v>
       </c>
-      <c r="G29"/>
-      <c r="H29">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <v>0.5</v>
       </c>
-      <c r="I29"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
         <v>5</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
         <v>10</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
         <v>0.5</v>
       </c>
-      <c r="G32"/>
-      <c r="H32">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <v>0.5</v>
       </c>
-      <c r="I32"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -871,32 +950,32 @@
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
         <v>2</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
         <v>3</v>
       </c>
-      <c r="I35"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -904,44 +983,168 @@
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
         <v>3</v>
       </c>
-      <c r="I38"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="1"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>11.5</v>
+      </c>
+      <c r="F42">
+        <v>35.5</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>15</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3">
+        <v>97.9</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/web/hwd2.xlsx
+++ b/web/hwd2.xlsx
@@ -205,24 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -231,13 +216,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:E10"/>
+      <selection activeCell="B47" sqref="B47:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,593 +544,725 @@
     <col min="9" max="9" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" customHeight="1" ht="40">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:10" customHeight="1" ht="40">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>9</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <v>4</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="1" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="1" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>4</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="1" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="1" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
         <v>2</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="1" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>2</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="1" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <v>8</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
         <v>5.5</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="1" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="1" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
         <v>0.5</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
         <v>0.5</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="1" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <v>1.5</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="1" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>0.5</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <v>0.5</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="1" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="1" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
         <v>10</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="1" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>0.5</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
         <v>0.5</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
         <v>2</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="1" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
         <v>3</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="3" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="1" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5">
         <v>3</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="3" t="s">
+      <c r="I38" s="5"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="1"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="3" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>0</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>11.5</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>35.5</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>26</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="1" t="s">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1"/>
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H43">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="5" t="s">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>15</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>11.5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>35.5</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>34.9</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" t="s">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="B48" t="s">
+    <row r="48" spans="1:10">
+      <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="B49" t="s">
+    <row r="49" spans="1:10">
+      <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>11.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="B50" t="s">
+    <row r="50" spans="1:10">
+      <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>35.5</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="B51" t="s">
+    <row r="51" spans="1:10">
+      <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="B52" t="s">
+    <row r="52" spans="1:10">
+      <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>34.9</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="B53" t="s">
+    <row r="53" spans="1:10">
+      <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="B56" s="3" t="s">
+    <row r="54" spans="1:10">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>97.9</v>
       </c>
     </row>

--- a/web/hwd2.xlsx
+++ b/web/hwd2.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Оценка трудозатрат по BR-14122  "Автоматизация закрытия карт. Вариант 1"</t>
   </si>
   <si>
-    <t>Пакет оценок: "Оценка по экспертизе" от 2018-07-12</t>
+    <t>Пакет оценок: "оценка по БФТЗ" от 2018-09-19</t>
   </si>
   <si>
     <t>Главный технолог</t>
@@ -44,97 +44,40 @@
     <t>Менеджер проекта</t>
   </si>
   <si>
+    <t>Технический писатель</t>
+  </si>
+  <si>
     <t>Результат:Предварительная оценка требований</t>
   </si>
   <si>
-    <t>Анализ требований на основании материалов установочной встречи</t>
-  </si>
-  <si>
     <t>Результат:Экспертиза разработана</t>
   </si>
   <si>
-    <t>Разработка экспертизы в части требований к Спектуруму</t>
-  </si>
-  <si>
-    <t>Согласование экспертизы с главным технологом по заявке</t>
+    <t>Название работы</t>
   </si>
   <si>
     <t>Результат:Экспертиза согласована</t>
   </si>
   <si>
-    <t>Согласование экспертизы и устранение замечаний</t>
-  </si>
-  <si>
     <t>Результат:БФТЗ разработано</t>
   </si>
   <si>
-    <t>Написание БФТЗ</t>
-  </si>
-  <si>
     <t>Результат:БФТЗ согласовано</t>
   </si>
   <si>
-    <t>Согласование БФТЗ по Спектруму</t>
-  </si>
-  <si>
-    <t>Согласование БФТЗ по Siebel</t>
-  </si>
-  <si>
     <t>Результат:Реализация и внутреннее тестирование  функционала</t>
   </si>
   <si>
-    <t>Разработка новой формы</t>
-  </si>
-  <si>
-    <t>Документирование функционала</t>
-  </si>
-  <si>
-    <t>Настройки</t>
-  </si>
-  <si>
-    <t>Доработка интеграции Зибель-Спектрум (wsdl)</t>
-  </si>
-  <si>
-    <t>Доработки взаимодействия с Бисквит</t>
-  </si>
-  <si>
-    <t>Разработка нового ИП</t>
-  </si>
-  <si>
-    <t>Доработка Аналитической выгрузки</t>
-  </si>
-  <si>
-    <t>Доработка метода сохранения операции (сохранение id зачисления, номера сводного счета списания)</t>
-  </si>
-  <si>
-    <t>Настройка нового пакета печати (РКО+справка СНИВ)</t>
-  </si>
-  <si>
-    <t>Разработка нового метода Поиск/создание лицевого счета для зачисления</t>
-  </si>
-  <si>
-    <t>Разработка нового метода по ведению резерва остатка лицевых счетов</t>
-  </si>
-  <si>
-    <t>Доработка отчетов</t>
+    <t>воду носить</t>
+  </si>
+  <si>
+    <t>Землю копать</t>
   </si>
   <si>
     <t>Результат:Протестировано по методикам банка</t>
   </si>
   <si>
-    <t>Согласование методики тестирования от банка</t>
-  </si>
-  <si>
-    <t>Тестирование по методике банка</t>
-  </si>
-  <si>
     <t>Результат:Версия подготовлена и протестирована</t>
-  </si>
-  <si>
-    <t>Сборка версии</t>
-  </si>
-  <si>
-    <t>Тестирование функционала в составе версии</t>
   </si>
   <si>
     <t>Результат:новый узел вложенный</t>
@@ -526,10 +469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B47" sqref="B47:C56"/>
+      <selection activeCell="B34" sqref="B34:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,17 +487,17 @@
     <col min="9" max="9" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customHeight="1" ht="40">
+    <row r="7" spans="1:11" customHeight="1" ht="40">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
@@ -578,11 +521,14 @@
       <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -593,24 +539,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -623,44 +567,43 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="5"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="5"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -671,30 +614,24 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -705,26 +642,24 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>4</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="5"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -735,535 +670,324 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <v>4</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5">
-        <v>2</v>
+        <v>0.31</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <v>2</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <v>8</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <v>5.5</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.431</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5">
-        <v>10</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5">
-        <v>2</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5">
-        <v>3</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5">
-        <v>3</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="F42" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>26</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1"/>
-      <c r="B44" s="6" t="s">
-        <v>43</v>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="F44" s="2">
-        <v>35.5</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>34.9</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="B53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="2">
-        <v>97.9</v>
+        <v>1.331</v>
       </c>
     </row>
   </sheetData>
@@ -1274,10 +998,10 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
